--- a/IPL/Royal Challengers Bangalore/Axar Patel.xlsx
+++ b/IPL/Royal Challengers Bangalore/Axar Patel.xlsx
@@ -445,28 +445,31 @@
         <v>Axar Patel</v>
       </c>
       <c r="C2" t="str">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>142.85</v>
+        <v>150.00</v>
       </c>
       <c r="H2" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>April 16 2022</v>
+        <v>April 15 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Axar Patel</v>
       </c>
       <c r="C3" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
       <c r="G3" t="str">
-        <v>142.85</v>
+        <v>266.66</v>
       </c>
       <c r="H3" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Delhi</v>
       </c>
       <c r="J3" t="str">
-        <v>April 16 2022</v>
+        <v>May 06 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 16 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
